--- a/00.Document/05.QA문서/[QA]프로토타입_체크리스트_180411_이병관v0.1.xlsx
+++ b/00.Document/05.QA문서/[QA]프로토타입_체크리스트_180411_이병관v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\3D 프로젝트\3DProject\00.Document\05. QA 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\3D 프로젝트\3DProject\00.Document\05.QA문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA62523D-0587-45E1-8C88-3BF544353BB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ED25CC-9778-4ACA-A36B-33F1AC7268F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7365" activeTab="2" xr2:uid="{DD4CCF37-D1E4-4609-85E5-562BDDAF155A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="199">
   <si>
     <t>버전</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -517,18 +517,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>WBS문서에 들어갈 내용 했는지 물어봐야함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>간트차트에 들어갈 내용 했는지 물어봐야함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일 프로젝트 관리 문서에 들어갈 내용 했는지 물어봐야함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마일스톤별 일정은 분류하였는가?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -549,10 +537,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DB 관리 문서에 들어갈 내용 했는지 물어봐야함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회의록 문서 양식은 정하였는가?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -737,10 +721,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시점에 관한 시스템 정의가 되어있는가?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>오브젝트 반응에 대한 시스템 정의가 되어있는가?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -770,6 +750,114 @@
   </si>
   <si>
     <t>챕터 별 진행 구조의 기획의도는 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이병관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일스톤 별 목표는 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 진행 방식은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 별 진행여부 항목이 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 업무별 연계관계는 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 필요한 리소스는 DB문서에 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 별 연계관계는 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 별 종류는 분류 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록에 그날 회의 결론이 적혀있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 필요한 시스템들은 모두 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 시스템에 대한 필요 요소들은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 존재하는 UI는 어떤 정보를 입/ 출 하는 지 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 요소들과의 관계는 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시점에 관한 시스템이 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독가스 게이지 시스템에 관한 시스템이 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 이동 포인트 시스템이 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 행동을 제어하는 요소들은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내에 존재하는 자원은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 플레이에대한 피드백은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 별 제약사항은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 별 예외처리는 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 직군에 대한 필용 역량은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계별 주요 목표는 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠 순환 구조는 항목 별로 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템에대한 리뷰는 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 시 피해야할 사항은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 시 제약 사항은 정의 되어있는가?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +1058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1088,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,6 +1179,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1087,24 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,13 +1206,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,7 +1526,7 @@
   <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1456,12 +1541,12 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1473,12 +1558,12 @@
       <c r="B3" s="4">
         <v>0.1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1490,59 +1575,67 @@
       <c r="B4" s="2">
         <v>0.2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="3">
+        <v>43205</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="K9" t="s">
         <v>99</v>
@@ -1551,46 +1644,46 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="2"/>
     </row>
   </sheetData>
@@ -1619,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF73547-5AA0-4978-A887-500A4FC521B5}">
   <dimension ref="B1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:I27"/>
     </sheetView>
   </sheetViews>
@@ -1632,19 +1725,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="7"/>
       <c r="F2" s="1"/>
     </row>
@@ -1658,13 +1751,13 @@
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="9" t="s">
         <v>32</v>
       </c>
@@ -1673,990 +1766,990 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="23" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="26" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="23" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="23" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="23" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="29" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="23" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="23" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="23" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="25" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="25" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="27" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="23" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="23" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="23" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="23" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="23" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="23" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="23" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="23" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="23" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="23" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="23" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="23" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="23" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="23" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="23" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="23" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="23" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="23" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="23" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="23" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="23" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="23" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="23" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="23" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="23" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="23" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="22" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="22" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="22" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="22" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="22" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="22" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="22" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="22" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="22" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="22" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="22" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="22" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="22" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="86">
@@ -2754,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ABB347-1028-4C90-9F0F-5C00F4B717E5}">
-  <dimension ref="C4:N113"/>
+  <dimension ref="C4:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:J16"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118:J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2772,22 +2865,22 @@
       <c r="D4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -2796,1829 +2889,2138 @@
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="3:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="E15" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="E25" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="38"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="E26" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="38"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
+      <c r="E27" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
+      <c r="E28" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="45"/>
     </row>
     <row r="29" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
+      <c r="E29" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="38"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
     </row>
     <row r="30" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
+      <c r="E30" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="38"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
     </row>
     <row r="31" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
+      <c r="E31" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="38"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
     </row>
     <row r="32" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="E32" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38"/>
-    </row>
-    <row r="33" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="38"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E35" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-    </row>
-    <row r="38" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="E38" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="35"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
     </row>
     <row r="39" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
+      <c r="E39" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-    </row>
-    <row r="41" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-    </row>
-    <row r="42" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="37"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="39"/>
+    </row>
+    <row r="40" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="39"/>
+    </row>
+    <row r="41" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="39"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="E42" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
     </row>
     <row r="43" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="35"/>
+      <c r="E43" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
     </row>
     <row r="44" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
+      <c r="E44" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="E45" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-    </row>
-    <row r="46" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="35"/>
+      <c r="E46" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="39"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="35"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
     </row>
     <row r="47" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="E47" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="35"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="39"/>
     </row>
     <row r="48" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="E48" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="35"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="39"/>
     </row>
     <row r="49" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
+      <c r="E49" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="39"/>
     </row>
     <row r="50" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
+      <c r="E50" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="42"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
     </row>
     <row r="51" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="50"/>
+      <c r="E51" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="42"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="35"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="39"/>
     </row>
     <row r="52" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
+      <c r="E52" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="42"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="35"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="39"/>
     </row>
     <row r="53" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="50"/>
+      <c r="E53" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="42"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="35"/>
-    </row>
-    <row r="54" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="39"/>
+    </row>
+    <row r="54" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="39"/>
+    </row>
+    <row r="55" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="39"/>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+      <c r="E56" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="39"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
+      <c r="E57" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="39"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
+      <c r="E58" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
+      <c r="E59" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
+      <c r="E60" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="39"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
+      <c r="E61" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
+      <c r="E62" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
+      <c r="E63" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="39"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
+      <c r="E64" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="39"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
+      <c r="E65" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="39"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C66" s="45"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="47"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+    </row>
+    <row r="66" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="39"/>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="48"/>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C69" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-    </row>
-    <row r="68" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="35"/>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+    </row>
+    <row r="70" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="39"/>
+    </row>
+    <row r="71" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="39"/>
+    </row>
+    <row r="72" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="39"/>
+    </row>
+    <row r="73" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-    </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-    </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-    </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-    </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="39"/>
+    </row>
+    <row r="74" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="39"/>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="39"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
+      <c r="E76" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="39"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
+      <c r="E77" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="39"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
+      <c r="E78" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="39"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
+      <c r="E79" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-    </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C85" s="45"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="47"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C86" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+    </row>
+    <row r="80" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="39"/>
+    </row>
+    <row r="81" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="39"/>
+    </row>
+    <row r="82" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="39"/>
+    </row>
+    <row r="83" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="39"/>
+    </row>
+    <row r="84" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="39"/>
+    </row>
+    <row r="85" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+    </row>
+    <row r="86" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+    </row>
+    <row r="87" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
     </row>
     <row r="88" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="39"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
     </row>
     <row r="89" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
+      <c r="D89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="37"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="39"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="39"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="39"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
     </row>
     <row r="92" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="39"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
     </row>
     <row r="93" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="39"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
     </row>
     <row r="94" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="39"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
     </row>
     <row r="95" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="39"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-    </row>
-    <row r="96" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="34"/>
-      <c r="N96" s="35"/>
-    </row>
-    <row r="97" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="35"/>
-    </row>
-    <row r="98" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="33"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="35"/>
-    </row>
-    <row r="99" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="35"/>
-    </row>
-    <row r="100" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="35"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C99" s="46"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="47"/>
+      <c r="L99" s="47"/>
+      <c r="M99" s="47"/>
+      <c r="N99" s="48"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
+      <c r="E101" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="39"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C102" s="45"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
-      <c r="J102" s="46"/>
-      <c r="K102" s="46"/>
-      <c r="L102" s="46"/>
-      <c r="M102" s="46"/>
-      <c r="N102" s="47"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C103" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="39"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
+      <c r="E104" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="39"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
+      <c r="E105" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="39"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
     </row>
     <row r="106" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
+      <c r="E106" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="39"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
+      <c r="E107" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="39"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
-      <c r="N107" s="14"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
+      <c r="E108" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="39"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+    </row>
+    <row r="110" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="39"/>
+    </row>
+    <row r="111" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="39"/>
+    </row>
+    <row r="112" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="39"/>
+    </row>
+    <row r="113" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="38"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="39"/>
+    </row>
+    <row r="114" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="39"/>
+    </row>
+    <row r="115" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="39"/>
+    </row>
+    <row r="116" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="39"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="39"/>
+    </row>
+    <row r="117" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="39"/>
+    </row>
+    <row r="118" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="39"/>
+    </row>
+    <row r="119" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="37"/>
+      <c r="M119" s="38"/>
+      <c r="N119" s="39"/>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="39"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C121" s="46"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="47"/>
+      <c r="K121" s="47"/>
+      <c r="L121" s="47"/>
+      <c r="M121" s="47"/>
+      <c r="N121" s="48"/>
+    </row>
+    <row r="122" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+    </row>
+    <row r="124" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+    </row>
+    <row r="125" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="38"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+    </row>
+    <row r="126" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="39"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+    </row>
+    <row r="127" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="38"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+    </row>
+    <row r="128" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="38"/>
+      <c r="J128" s="39"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+    </row>
+    <row r="129" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
+    </row>
+    <row r="130" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="38"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-    </row>
-    <row r="110" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="14"/>
-    </row>
-    <row r="111" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-    </row>
-    <row r="112" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-    </row>
-    <row r="113" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="216">
+  <mergeCells count="254">
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="E116:J116"/>
+    <mergeCell ref="E117:J117"/>
+    <mergeCell ref="E118:J118"/>
+    <mergeCell ref="E119:J119"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="L118:N118"/>
+    <mergeCell ref="L119:N119"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="L53:N53"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="L42:N42"/>
     <mergeCell ref="L43:N43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="L48:N48"/>
     <mergeCell ref="E47:J47"/>
     <mergeCell ref="L47:N47"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="L39:N39"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C35:N35"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="L120:N120"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="L130:N130"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="L123:N123"/>
+    <mergeCell ref="L124:N124"/>
+    <mergeCell ref="L125:N125"/>
+    <mergeCell ref="L126:N126"/>
+    <mergeCell ref="C121:N121"/>
+    <mergeCell ref="E132:J132"/>
+    <mergeCell ref="E127:J127"/>
+    <mergeCell ref="E128:J128"/>
+    <mergeCell ref="E129:J129"/>
+    <mergeCell ref="E130:J130"/>
+    <mergeCell ref="E131:J131"/>
+    <mergeCell ref="L127:N127"/>
+    <mergeCell ref="L128:N128"/>
+    <mergeCell ref="L129:N129"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="L90:N90"/>
     <mergeCell ref="L91:N91"/>
     <mergeCell ref="L92:N92"/>
     <mergeCell ref="L93:N93"/>
     <mergeCell ref="L94:N94"/>
     <mergeCell ref="L95:N95"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="C102:N102"/>
-    <mergeCell ref="E113:J113"/>
-    <mergeCell ref="E108:J108"/>
-    <mergeCell ref="E109:J109"/>
-    <mergeCell ref="E110:J110"/>
-    <mergeCell ref="E111:J111"/>
-    <mergeCell ref="E112:J112"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="L82:N82"/>
     <mergeCell ref="L83:N83"/>
     <mergeCell ref="L84:N84"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="L69:N69"/>
     <mergeCell ref="L75:N75"/>
     <mergeCell ref="L76:N76"/>
     <mergeCell ref="L77:N77"/>
     <mergeCell ref="L78:N78"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="C66:N66"/>
-    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="C68:N68"/>
     <mergeCell ref="L61:N61"/>
     <mergeCell ref="L62:N62"/>
     <mergeCell ref="L63:N63"/>
     <mergeCell ref="L64:N64"/>
     <mergeCell ref="L65:N65"/>
-    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="L67:N67"/>
     <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="L72:N72"/>
     <mergeCell ref="L59:N59"/>
+    <mergeCell ref="L60:N60"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L42:N42"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="L7:N7"/>
@@ -4628,66 +5030,48 @@
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="L49:N49"/>
     <mergeCell ref="L51:N51"/>
     <mergeCell ref="L52:N52"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="E46:J46"/>
     <mergeCell ref="E50:J50"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="L46:N46"/>
     <mergeCell ref="L50:N50"/>
-    <mergeCell ref="E107:J107"/>
-    <mergeCell ref="E101:J101"/>
-    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="E126:J126"/>
+    <mergeCell ref="E120:J120"/>
+    <mergeCell ref="E122:J122"/>
+    <mergeCell ref="E123:J123"/>
+    <mergeCell ref="E124:J124"/>
+    <mergeCell ref="E125:J125"/>
     <mergeCell ref="E104:J104"/>
     <mergeCell ref="E105:J105"/>
     <mergeCell ref="E106:J106"/>
+    <mergeCell ref="E107:J107"/>
+    <mergeCell ref="E108:J108"/>
+    <mergeCell ref="E109:J109"/>
+    <mergeCell ref="E98:J98"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="E101:J101"/>
+    <mergeCell ref="E102:J102"/>
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="E96:J96"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="E89:J89"/>
     <mergeCell ref="E90:J90"/>
     <mergeCell ref="E91:J91"/>
-    <mergeCell ref="E92:J92"/>
-    <mergeCell ref="E93:J93"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="E87:J87"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="E80:J80"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="C85:N85"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E22:J22"/>
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
@@ -4701,34 +5085,89 @@
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="L32:N32"/>
-    <mergeCell ref="E96:J96"/>
-    <mergeCell ref="E97:J97"/>
-    <mergeCell ref="E98:J98"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="E111:J111"/>
+    <mergeCell ref="E112:J112"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="C99:N99"/>
+    <mergeCell ref="E113:J113"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E92:J92"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="E80:J80"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="E87:J87"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="L87:N87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.Document/05.QA문서/[QA]프로토타입_체크리스트_180411_이병관v0.1.xlsx
+++ b/00.Document/05.QA문서/[QA]프로토타입_체크리스트_180411_이병관v0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\3D 프로젝트\3DProject\00.Document\05.QA문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ED25CC-9778-4ACA-A36B-33F1AC7268F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA1A205-C92B-4D7F-823F-47E19B08DE67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7365" activeTab="2" xr2:uid="{DD4CCF37-D1E4-4609-85E5-562BDDAF155A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
   <si>
     <t>버전</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -725,10 +725,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">등장 컨텐츠의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>필요 시스템에 대한 규칙은 정의 되어있는가?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -853,11 +849,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>개발 시 피해야할 사항은 정의 되어있는가?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>개발 시 제약 사항은 정의 되어있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 시 고려해랴할 사항은 정의 되어있는가?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1113,11 +1109,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,38 +1166,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,24 +1183,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1207,6 +1194,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1541,12 +1537,12 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1558,12 +1554,12 @@
       <c r="B3" s="4">
         <v>0.1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1575,12 +1571,12 @@
       <c r="B4" s="2">
         <v>0.2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="2" t="s">
         <v>98</v>
       </c>
@@ -1592,50 +1588,50 @@
       <c r="B5" s="2">
         <v>0.3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="2"/>
       <c r="K9" t="s">
         <v>99</v>
@@ -1644,55 +1640,50 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C6:F6"/>
@@ -1701,6 +1692,11 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1725,19 +1721,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="7"/>
       <c r="F2" s="1"/>
     </row>
@@ -1751,13 +1747,13 @@
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="9" t="s">
         <v>32</v>
       </c>
@@ -1766,253 +1762,253 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="30" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="27" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="27" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="27" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="27" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="27" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="33" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="27" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="27" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="27" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="29" t="s">
         <v>35</v>
       </c>
@@ -2024,750 +2020,790 @@
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="31" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="27" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="27" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="27" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="27" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="27" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="27" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="27" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="27" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="27" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="27" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="27" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="27" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="27" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="27" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="27" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="27" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="27" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="27" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="27" t="s">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="27" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="27" t="s">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="27" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="27" t="s">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="27" t="s">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="27" t="s">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="26" t="s">
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="26" t="s">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="26" t="s">
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="26" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="26" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="26" t="s">
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="26" t="s">
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="26" t="s">
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="26" t="s">
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="26" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="26" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="26" t="s">
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="26" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:B65"/>
+    <mergeCell ref="C5:C65"/>
+    <mergeCell ref="D5:D36"/>
+    <mergeCell ref="D38:D65"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="E77:I77"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="E74:I74"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="E49:I49"/>
@@ -2784,61 +2820,21 @@
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E82:I82"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="E76:I76"/>
-    <mergeCell ref="E77:I77"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="E80:I80"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="E71:I71"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="E74:I74"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:B65"/>
-    <mergeCell ref="C5:C65"/>
-    <mergeCell ref="D5:D36"/>
-    <mergeCell ref="D38:D65"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2847,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ABB347-1028-4C90-9F0F-5C00F4B717E5}">
-  <dimension ref="C4:N132"/>
+  <dimension ref="C4:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118:J118"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113:J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2865,22 +2861,22 @@
       <c r="D4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -2889,480 +2885,480 @@
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="3:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="E15" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
     </row>
     <row r="30" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
+      <c r="E30" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
     </row>
     <row r="31" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
+      <c r="E31" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
     </row>
     <row r="32" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
+      <c r="E32" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="39"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="48"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="45"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
@@ -3371,544 +3367,544 @@
       <c r="D35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
+      <c r="E36" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
+      <c r="E37" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
     </row>
     <row r="39" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="39"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="42"/>
     </row>
     <row r="40" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
+      <c r="E40" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
     </row>
     <row r="41" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
+      <c r="E41" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="14"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="39"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="42"/>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
     </row>
     <row r="43" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
     </row>
     <row r="44" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
     </row>
     <row r="45" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="39"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="42"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
     </row>
     <row r="47" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="42"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
     </row>
     <row r="48" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="39"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="39"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="42"/>
     </row>
     <row r="49" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="39"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="39"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="42"/>
     </row>
     <row r="50" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="42"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
     </row>
     <row r="51" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="42"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="39"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="42"/>
     </row>
     <row r="52" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="42"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="49"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="42"/>
     </row>
     <row r="53" spans="3:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="42"/>
+      <c r="E53" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="49"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="39"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="42"/>
     </row>
     <row r="54" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="42"/>
+      <c r="E54" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="49"/>
       <c r="K54" s="14"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="39"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="42"/>
     </row>
     <row r="55" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="42"/>
+      <c r="E55" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="49"/>
       <c r="K55" s="14"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="39"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="42"/>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="39"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="42"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="39"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="42"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="39"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="39"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="42"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="39"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="42"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="39"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="42"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="39"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="42"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="39"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="42"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="39"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="42"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="39"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="42"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
     </row>
     <row r="66" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="39"/>
+      <c r="E66" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="42"/>
       <c r="K66" s="14"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="39"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="42"/>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="39"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="42"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C68" s="46"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="48"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="45"/>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C69" s="2" t="s">
@@ -3917,472 +3913,472 @@
       <c r="D69" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="39"/>
+      <c r="E69" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="42"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
     </row>
     <row r="70" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="39"/>
+      <c r="E70" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="42"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="39"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="42"/>
     </row>
     <row r="71" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="39"/>
+      <c r="E71" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="42"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="39"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="42"/>
     </row>
     <row r="72" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="39"/>
+      <c r="E72" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="42"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="39"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="42"/>
     </row>
     <row r="73" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="39"/>
+      <c r="E73" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="42"/>
       <c r="K73" s="14"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="39"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="42"/>
     </row>
     <row r="74" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="39"/>
+      <c r="E74" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="42"/>
       <c r="K74" s="10"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="39"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="42"/>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="39"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="42"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="39"/>
+      <c r="E76" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="42"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="39"/>
+      <c r="E77" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="42"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="39"/>
+      <c r="E78" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="42"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
+      <c r="E79" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
     </row>
     <row r="80" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
-      <c r="E80" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
+      <c r="E80" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
       <c r="K80" s="14"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="39"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="42"/>
     </row>
     <row r="81" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
-      <c r="E81" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
+      <c r="E81" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="39"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="42"/>
     </row>
     <row r="82" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
-      <c r="E82" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="39"/>
+      <c r="E82" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="42"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="39"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="42"/>
     </row>
     <row r="83" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
-      <c r="E83" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="39"/>
+      <c r="E83" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="42"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="39"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="42"/>
     </row>
     <row r="84" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="39"/>
+      <c r="E84" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="42"/>
       <c r="K84" s="14"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="39"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="42"/>
     </row>
     <row r="85" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
-      <c r="E85" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="39"/>
+      <c r="E85" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="42"/>
       <c r="K85" s="14"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
     </row>
     <row r="86" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="39"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="42"/>
       <c r="K86" s="14"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
     </row>
     <row r="87" spans="3:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="39"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="42"/>
       <c r="K87" s="14"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
     </row>
     <row r="88" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="39"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="42"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
     </row>
     <row r="89" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="37"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="39"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="42"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="39"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="42"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="42"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
     </row>
     <row r="92" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="39"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="42"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
     </row>
     <row r="93" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="39"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="42"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
     </row>
     <row r="94" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="39"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="42"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
     </row>
     <row r="95" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="39"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="42"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
     </row>
     <row r="96" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="39"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="42"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="39"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="42"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="42"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C99" s="46"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47"/>
-      <c r="L99" s="47"/>
-      <c r="M99" s="47"/>
-      <c r="N99" s="48"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="45"/>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
@@ -4391,541 +4387,717 @@
       <c r="D100" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="37" t="s">
+      <c r="E100" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="39"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="42"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="37" t="s">
+      <c r="E101" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="39"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="42"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="37" t="s">
+      <c r="E102" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="39"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="42"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="37" t="s">
+      <c r="E103" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="39"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="42"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="37" t="s">
+      <c r="E104" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="39"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="42"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="18"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="37" t="s">
+      <c r="E105" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="39"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="42"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
     </row>
     <row r="106" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="37" t="s">
+      <c r="E106" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="39"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="42"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="37" t="s">
+      <c r="E107" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="39"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="42"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="37" t="s">
+      <c r="E108" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="39"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="42"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="37" t="s">
+      <c r="E109" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="39"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="42"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
     </row>
     <row r="110" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
-      <c r="E110" s="37" t="s">
+      <c r="E110" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="39"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="42"/>
       <c r="K110" s="10"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="39"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="41"/>
+      <c r="N110" s="42"/>
     </row>
     <row r="111" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
-      <c r="E111" s="37" t="s">
+      <c r="E111" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="39"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="42"/>
       <c r="K111" s="10"/>
-      <c r="L111" s="37"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="39"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="42"/>
     </row>
     <row r="112" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
-      <c r="E112" s="37" t="s">
+      <c r="E112" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="39"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="42"/>
       <c r="K112" s="10"/>
-      <c r="L112" s="37"/>
-      <c r="M112" s="38"/>
-      <c r="N112" s="39"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="41"/>
+      <c r="N112" s="42"/>
     </row>
     <row r="113" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="39"/>
+      <c r="E113" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="42"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="37"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="39"/>
-    </row>
-    <row r="114" spans="3:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="37" t="s">
+      <c r="L113" s="40"/>
+      <c r="M113" s="41"/>
+      <c r="N113" s="42"/>
+    </row>
+    <row r="114" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="39"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="38"/>
-      <c r="N114" s="39"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="42"/>
     </row>
     <row r="115" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
-      <c r="E115" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="39"/>
+      <c r="E115" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="42"/>
       <c r="K115" s="16"/>
-      <c r="L115" s="37"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="39"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="41"/>
+      <c r="N115" s="42"/>
     </row>
     <row r="116" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
-      <c r="E116" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="39"/>
+      <c r="E116" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="42"/>
       <c r="K116" s="16"/>
-      <c r="L116" s="37"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="39"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="41"/>
+      <c r="N116" s="42"/>
     </row>
     <row r="117" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
-      <c r="E117" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="39"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="42"/>
       <c r="K117" s="16"/>
-      <c r="L117" s="37"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="39"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="42"/>
     </row>
     <row r="118" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="39"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="42"/>
       <c r="K118" s="16"/>
-      <c r="L118" s="37"/>
-      <c r="M118" s="38"/>
-      <c r="N118" s="39"/>
-    </row>
-    <row r="119" spans="3:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="39"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="37"/>
-      <c r="M119" s="38"/>
-      <c r="N119" s="39"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="42"/>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="39"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="44"/>
+      <c r="L120" s="44"/>
+      <c r="M120" s="44"/>
+      <c r="N120" s="45"/>
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C121" s="46"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="47"/>
-      <c r="L121" s="47"/>
-      <c r="M121" s="47"/>
-      <c r="N121" s="48"/>
+      <c r="C121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
     </row>
     <row r="122" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C122" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="39"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="42"/>
       <c r="K122" s="2"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="39"/>
+      <c r="E123" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="42"/>
       <c r="K123" s="2"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
     </row>
     <row r="124" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="39"/>
+      <c r="E124" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="42"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
     </row>
     <row r="125" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="39"/>
+      <c r="E125" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="42"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
     </row>
     <row r="126" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="39"/>
+      <c r="E126" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="42"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
     </row>
     <row r="127" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="39"/>
+      <c r="E127" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="42"/>
       <c r="K127" s="2"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
     </row>
     <row r="128" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="39"/>
+      <c r="E128" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="42"/>
       <c r="K128" s="2"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="J129" s="39"/>
+      <c r="E129" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="42"/>
       <c r="K129" s="2"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="18"/>
-      <c r="N129" s="18"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
     </row>
     <row r="130" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="J130" s="39"/>
+      <c r="E130" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="42"/>
       <c r="K130" s="2"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="N130" s="18"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="39"/>
+      <c r="E131" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="42"/>
       <c r="K131" s="2"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-    </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="254">
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="E116:J116"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="E118:J118"/>
+  <mergeCells count="252">
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E113:J113"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E92:J92"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="E111:J111"/>
+    <mergeCell ref="E112:J112"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="C99:N99"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="E96:J96"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="E90:J90"/>
+    <mergeCell ref="E91:J91"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="E80:J80"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="E87:J87"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="E125:J125"/>
     <mergeCell ref="E119:J119"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="L118:N118"/>
+    <mergeCell ref="E121:J121"/>
+    <mergeCell ref="E122:J122"/>
+    <mergeCell ref="E123:J123"/>
+    <mergeCell ref="E124:J124"/>
+    <mergeCell ref="E104:J104"/>
+    <mergeCell ref="E105:J105"/>
+    <mergeCell ref="E106:J106"/>
+    <mergeCell ref="E107:J107"/>
+    <mergeCell ref="E108:J108"/>
+    <mergeCell ref="E109:J109"/>
+    <mergeCell ref="E98:J98"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="E101:J101"/>
+    <mergeCell ref="E102:J102"/>
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="C68:N68"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="L87:N87"/>
     <mergeCell ref="L119:N119"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="L129:N129"/>
+    <mergeCell ref="L130:N130"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="L121:N121"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="L123:N123"/>
+    <mergeCell ref="L124:N124"/>
+    <mergeCell ref="L125:N125"/>
+    <mergeCell ref="C120:N120"/>
+    <mergeCell ref="E131:J131"/>
+    <mergeCell ref="E126:J126"/>
+    <mergeCell ref="E127:J127"/>
+    <mergeCell ref="E128:J128"/>
+    <mergeCell ref="E129:J129"/>
+    <mergeCell ref="E130:J130"/>
+    <mergeCell ref="L126:N126"/>
+    <mergeCell ref="L127:N127"/>
+    <mergeCell ref="L128:N128"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="L27:N27"/>
@@ -4950,35 +5122,23 @@
     <mergeCell ref="E35:J35"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E45:J45"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="E116:J116"/>
+    <mergeCell ref="E117:J117"/>
+    <mergeCell ref="E118:J118"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="L118:N118"/>
     <mergeCell ref="L105:N105"/>
     <mergeCell ref="L106:N106"/>
     <mergeCell ref="L107:N107"/>
     <mergeCell ref="L108:N108"/>
     <mergeCell ref="L109:N109"/>
-    <mergeCell ref="L120:N120"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="L130:N130"/>
-    <mergeCell ref="L131:N131"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="L122:N122"/>
-    <mergeCell ref="L123:N123"/>
-    <mergeCell ref="L124:N124"/>
-    <mergeCell ref="L125:N125"/>
-    <mergeCell ref="L126:N126"/>
-    <mergeCell ref="C121:N121"/>
-    <mergeCell ref="E132:J132"/>
-    <mergeCell ref="E127:J127"/>
-    <mergeCell ref="E128:J128"/>
-    <mergeCell ref="E129:J129"/>
-    <mergeCell ref="E130:J130"/>
-    <mergeCell ref="E131:J131"/>
-    <mergeCell ref="L127:N127"/>
-    <mergeCell ref="L128:N128"/>
-    <mergeCell ref="L129:N129"/>
     <mergeCell ref="L96:N96"/>
     <mergeCell ref="L97:N97"/>
     <mergeCell ref="L98:N98"/>
@@ -4986,188 +5146,6 @@
     <mergeCell ref="L88:N88"/>
     <mergeCell ref="L89:N89"/>
     <mergeCell ref="L90:N90"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="C68:N68"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="E126:J126"/>
-    <mergeCell ref="E120:J120"/>
-    <mergeCell ref="E122:J122"/>
-    <mergeCell ref="E123:J123"/>
-    <mergeCell ref="E124:J124"/>
-    <mergeCell ref="E125:J125"/>
-    <mergeCell ref="E104:J104"/>
-    <mergeCell ref="E105:J105"/>
-    <mergeCell ref="E106:J106"/>
-    <mergeCell ref="E107:J107"/>
-    <mergeCell ref="E108:J108"/>
-    <mergeCell ref="E109:J109"/>
-    <mergeCell ref="E98:J98"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="E101:J101"/>
-    <mergeCell ref="E102:J102"/>
-    <mergeCell ref="E103:J103"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="E96:J96"/>
-    <mergeCell ref="E97:J97"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="E90:J90"/>
-    <mergeCell ref="E91:J91"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="E110:J110"/>
-    <mergeCell ref="E111:J111"/>
-    <mergeCell ref="E112:J112"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="C99:N99"/>
-    <mergeCell ref="E113:J113"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E92:J92"/>
-    <mergeCell ref="E93:J93"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="E80:J80"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="E87:J87"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="L87:N87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
